--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -596,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -614,51 +614,54 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
           <t>Blek fingersvamp
+Gul taggsvamp
 Tallticka
 Brandticka
+Dropptaggsvamp
 Fjällig taggsvamp s.str.
 Grovticka
 Grön sköldmossa
-Jättesvampmal</t>
+Jättesvampmal
+Trådticka</t>
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 43913-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 43913-2021.xlsx", "A 43913-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 43913-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 43913-2021.png", "A 43913-2021")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/knärot/A 43913-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/knärot/A 43913-2021.png", "A 43913-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 43913-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 43913-2021.docx", "A 43913-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 43913-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 43913-2021.docx", "A 43913-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 43913-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 43913-2021.docx", "A 43913-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 43913-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 43913-2021.docx", "A 43913-2021")</f>
         <v/>
       </c>
     </row>
@@ -672,7 +675,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -726,27 +729,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 24599-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 24599-2022.xlsx", "A 24599-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 24599-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 24599-2022.png", "A 24599-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 24599-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 24599-2022.docx", "A 24599-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 24599-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 24599-2022.docx", "A 24599-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 24599-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 24599-2022.docx", "A 24599-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 24599-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 24599-2022.docx", "A 24599-2022")</f>
         <v/>
       </c>
     </row>
@@ -760,7 +763,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,27 +821,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 53981-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 53981-2020.xlsx", "A 53981-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 53981-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 53981-2020.png", "A 53981-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 53981-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 53981-2020.docx", "A 53981-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 53981-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 53981-2020.docx", "A 53981-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 53981-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 53981-2020.docx", "A 53981-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 53981-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 53981-2020.docx", "A 53981-2020")</f>
         <v/>
       </c>
     </row>
@@ -852,7 +855,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -910,27 +913,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 43900-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 43900-2021.xlsx", "A 43900-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 43900-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 43900-2021.png", "A 43900-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 43900-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 43900-2021.docx", "A 43900-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 43900-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 43900-2021.docx", "A 43900-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 43900-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 43900-2021.docx", "A 43900-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 43900-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 43900-2021.docx", "A 43900-2021")</f>
         <v/>
       </c>
     </row>
@@ -944,7 +947,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -996,27 +999,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 1335-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 1335-2020.xlsx", "A 1335-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 1335-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 1335-2020.png", "A 1335-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 1335-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 1335-2020.docx", "A 1335-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 1335-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 1335-2020.docx", "A 1335-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 1335-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 1335-2020.docx", "A 1335-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 1335-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 1335-2020.docx", "A 1335-2020")</f>
         <v/>
       </c>
     </row>
@@ -1030,7 +1033,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1082,27 +1085,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 4058-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 4058-2020.xlsx", "A 4058-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 4058-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 4058-2020.png", "A 4058-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 4058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 4058-2020.docx", "A 4058-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 4058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 4058-2020.docx", "A 4058-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 4058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 4058-2020.docx", "A 4058-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 4058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 4058-2020.docx", "A 4058-2020")</f>
         <v/>
       </c>
     </row>
@@ -1116,7 +1119,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1168,27 +1171,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 1697-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 1697-2023.xlsx", "A 1697-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 1697-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 1697-2023.png", "A 1697-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 1697-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 1697-2023.docx", "A 1697-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 1697-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 1697-2023.docx", "A 1697-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 1697-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 1697-2023.docx", "A 1697-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 1697-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 1697-2023.docx", "A 1697-2023")</f>
         <v/>
       </c>
     </row>
@@ -1202,7 +1205,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,27 +1261,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 57725-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 57725-2018.xlsx", "A 57725-2018")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 57725-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 57725-2018.png", "A 57725-2018")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 57725-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 57725-2018.docx", "A 57725-2018")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 57725-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 57725-2018.docx", "A 57725-2018")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 57725-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 57725-2018.docx", "A 57725-2018")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 57725-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 57725-2018.docx", "A 57725-2018")</f>
         <v/>
       </c>
     </row>
@@ -1292,7 +1295,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,27 +1346,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 16236-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 16236-2020.xlsx", "A 16236-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 16236-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 16236-2020.png", "A 16236-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 16236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 16236-2020.docx", "A 16236-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 16236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 16236-2020.docx", "A 16236-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 16236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 16236-2020.docx", "A 16236-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 16236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 16236-2020.docx", "A 16236-2020")</f>
         <v/>
       </c>
     </row>
@@ -1377,7 +1380,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1428,27 +1431,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 34971-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 34971-2020.xlsx", "A 34971-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 34971-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 34971-2020.png", "A 34971-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 34971-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 34971-2020.docx", "A 34971-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 34971-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 34971-2020.docx", "A 34971-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 34971-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 34971-2020.docx", "A 34971-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 34971-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 34971-2020.docx", "A 34971-2020")</f>
         <v/>
       </c>
     </row>
@@ -1462,7 +1465,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1513,27 +1516,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 10469-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 10469-2022.xlsx", "A 10469-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 10469-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 10469-2022.png", "A 10469-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 10469-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 10469-2022.docx", "A 10469-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 10469-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 10469-2022.docx", "A 10469-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 10469-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 10469-2022.docx", "A 10469-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 10469-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 10469-2022.docx", "A 10469-2022")</f>
         <v/>
       </c>
     </row>
@@ -1547,7 +1550,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1598,27 +1601,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 18100-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 18100-2022.xlsx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 18100-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 18100-2022.png", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 18100-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 18100-2022.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 18100-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 18100-2022.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 18100-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 18100-2022.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 18100-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 18100-2022.docx", "A 18100-2022")</f>
         <v/>
       </c>
     </row>
@@ -1632,7 +1635,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1683,27 +1686,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 1691-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 1691-2023.xlsx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 1691-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 1691-2023.png", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 1691-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 1691-2023.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 1691-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 1691-2023.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 1691-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 1691-2023.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 1691-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 1691-2023.docx", "A 1691-2023")</f>
         <v/>
       </c>
     </row>
@@ -1717,7 +1720,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,27 +1771,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 5574-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 5574-2023.xlsx", "A 5574-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 5574-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 5574-2023.png", "A 5574-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 5574-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 5574-2023.docx", "A 5574-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 5574-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 5574-2023.docx", "A 5574-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 5574-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 5574-2023.docx", "A 5574-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 5574-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 5574-2023.docx", "A 5574-2023")</f>
         <v/>
       </c>
     </row>
@@ -1802,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,27 +1861,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 23829-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/artfynd/A 23829-2023.xlsx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 23829-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/kartor/A 23829-2023.png", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 23829-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomål/A 23829-2023.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 23829-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/klagomålsmail/A 23829-2023.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 23829-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsyn/A 23829-2023.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 23829-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOTKYRKA/tillsynsmail/A 23829-2023.docx", "A 23829-2023")</f>
         <v/>
       </c>
     </row>
@@ -1892,7 +1895,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1949,7 +1952,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2014,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2073,7 +2076,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2130,7 +2133,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2187,7 +2190,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2244,7 +2247,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2301,7 +2304,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2358,7 +2361,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2418,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2475,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2532,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2589,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2646,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2703,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2760,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2817,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2871,7 +2874,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2928,7 +2931,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2988,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3045,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3102,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3159,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3218,7 +3221,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3283,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3340,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3397,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3454,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3508,7 +3511,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3565,7 +3568,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3627,7 +3630,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3684,7 +3687,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3741,7 +3744,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3798,7 +3801,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3855,7 +3858,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3912,7 +3915,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3969,7 +3972,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4026,7 +4029,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4083,7 +4086,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4145,7 +4148,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4202,7 +4205,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4259,7 +4262,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4316,7 +4319,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4373,7 +4376,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4430,7 +4433,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4487,7 +4490,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4544,7 +4547,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4601,7 +4604,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4658,7 +4661,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4715,7 +4718,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4772,7 +4775,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4829,7 +4832,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4889,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4943,7 +4946,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5000,7 +5003,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5062,7 +5065,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5124,7 +5127,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5181,7 +5184,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5238,7 +5241,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5295,7 +5298,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5355,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5409,7 +5412,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5466,7 +5469,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5523,7 +5526,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5585,7 +5588,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5647,7 +5650,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5704,7 +5707,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5761,7 +5764,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5823,7 +5826,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5880,7 +5883,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5937,7 +5940,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5994,7 +5997,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6051,7 +6054,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6108,7 +6111,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6165,7 +6168,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6227,7 +6230,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6287,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6344,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6403,7 +6406,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6460,7 +6463,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6517,7 +6520,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6574,7 +6577,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6636,7 +6639,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6698,7 +6701,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6755,7 +6758,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6817,7 +6820,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6879,7 +6882,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -572,7 +572,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44727</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43843</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43857</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44938</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43917</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44039</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44684</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43696</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43696</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43864</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43895</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43895</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43900</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43956</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>44025</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44130</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44141</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44200</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44354</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44385</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44389</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44395</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44552</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44586</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44586</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44586</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44784</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44812</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44812</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44812</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44844</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44846</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>44859</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44860</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44899</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>44930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44995</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>45020</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>45020</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>45029</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45044</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>45050</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45062</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45113</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45113</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>45152</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
